--- a/data/pca/factorExposure/factorExposure_2015-07-06.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-07-06.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,18 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +704,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,61 +723,109 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>-0.01949265662038342</v>
+        <v>0.01068385746455221</v>
       </c>
       <c r="C2">
-        <v>-0.02467572791340125</v>
+        <v>-0.05112495915970401</v>
       </c>
       <c r="D2">
-        <v>-0.1207046190257371</v>
+        <v>0.14048645858443</v>
       </c>
       <c r="E2">
-        <v>0.005640382286491395</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>0.01041325255379543</v>
+      </c>
+      <c r="F2">
+        <v>-0.01605664085128107</v>
+      </c>
+      <c r="G2">
+        <v>0.1172851165886112</v>
+      </c>
+      <c r="H2">
+        <v>0.07711092764640068</v>
+      </c>
+      <c r="I2">
+        <v>-0.02569508928210939</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B3">
-        <v>-0.0006595009365190247</v>
+        <v>-0.002399853752677399</v>
       </c>
       <c r="C3">
-        <v>-0.01169317859813451</v>
+        <v>-0.007883175104224142</v>
       </c>
       <c r="D3">
-        <v>-0.005960170798925536</v>
+        <v>0.006108214620172487</v>
       </c>
       <c r="E3">
-        <v>-0.005695789972153952</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>-0.01811407319578184</v>
+      </c>
+      <c r="F3">
+        <v>0.007669078209043505</v>
+      </c>
+      <c r="G3">
+        <v>0.003390099041446088</v>
+      </c>
+      <c r="H3">
+        <v>0.002252711411956294</v>
+      </c>
+      <c r="I3">
+        <v>0.02768778486141948</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>-0.04637739457538623</v>
+        <v>0.0200406615643533</v>
       </c>
       <c r="C4">
-        <v>-0.06818750963851597</v>
+        <v>-0.09965925932326555</v>
       </c>
       <c r="D4">
-        <v>-0.1310561513286786</v>
+        <v>0.138966154436011</v>
       </c>
       <c r="E4">
-        <v>-0.07253846561059672</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>-0.01551124434670265</v>
+      </c>
+      <c r="F4">
+        <v>-0.08777151627698407</v>
+      </c>
+      <c r="G4">
+        <v>0.006920269975843264</v>
+      </c>
+      <c r="H4">
+        <v>0.04878337052221712</v>
+      </c>
+      <c r="I4">
+        <v>-0.03709938186414845</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,197 +839,341 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>-0.02474965201240993</v>
+        <v>0.02754996142943396</v>
       </c>
       <c r="C6">
-        <v>-0.01196713124390328</v>
+        <v>-0.02879463816597005</v>
       </c>
       <c r="D6">
-        <v>-0.1418238580231099</v>
+        <v>0.1269335330577403</v>
       </c>
       <c r="E6">
-        <v>-0.03127127212353808</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>0.04608971727908784</v>
+      </c>
+      <c r="F6">
+        <v>-0.05392914020571667</v>
+      </c>
+      <c r="G6">
+        <v>0.007781007611113173</v>
+      </c>
+      <c r="H6">
+        <v>0.06570935259467305</v>
+      </c>
+      <c r="I6">
+        <v>0.02556009667645535</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>-0.007921006891985438</v>
+        <v>0.008778692156049364</v>
       </c>
       <c r="C7">
-        <v>-0.0231093180924049</v>
+        <v>-0.03290734108388912</v>
       </c>
       <c r="D7">
-        <v>-0.1131842324886125</v>
+        <v>0.1012227635807821</v>
       </c>
       <c r="E7">
-        <v>0.004697841570306358</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>0.04953672629953228</v>
+      </c>
+      <c r="F7">
+        <v>-0.006642502072642179</v>
+      </c>
+      <c r="G7">
+        <v>-0.0130249338405671</v>
+      </c>
+      <c r="H7">
+        <v>0.07286019719010156</v>
+      </c>
+      <c r="I7">
+        <v>0.01981053366124369</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>0.0005386994182308998</v>
+        <v>-0.01043234301734001</v>
       </c>
       <c r="C8">
-        <v>-0.02654085594439581</v>
+        <v>-0.03228756890422801</v>
       </c>
       <c r="D8">
-        <v>-0.08336550195175667</v>
+        <v>0.08109798789113498</v>
       </c>
       <c r="E8">
-        <v>-0.01975518525073559</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>0.01966741994791876</v>
+      </c>
+      <c r="F8">
+        <v>-0.0438633694675205</v>
+      </c>
+      <c r="G8">
+        <v>0.06958410802293347</v>
+      </c>
+      <c r="H8">
+        <v>0.01608126411446942</v>
+      </c>
+      <c r="I8">
+        <v>0.04341428503464317</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>-0.03979626158237637</v>
+        <v>0.01490519112824318</v>
       </c>
       <c r="C9">
-        <v>-0.05955855754910393</v>
+        <v>-0.08392044830190953</v>
       </c>
       <c r="D9">
-        <v>-0.1331762287097343</v>
+        <v>0.1210687990437326</v>
       </c>
       <c r="E9">
-        <v>-0.05632558878736822</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>-0.005687061527681296</v>
+      </c>
+      <c r="F9">
+        <v>-0.05760624827117908</v>
+      </c>
+      <c r="G9">
+        <v>-0.01575460660985232</v>
+      </c>
+      <c r="H9">
+        <v>0.06181596066237486</v>
+      </c>
+      <c r="I9">
+        <v>-0.007005085557239684</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>-0.1519019861939394</v>
+        <v>0.2314835444587318</v>
       </c>
       <c r="C10">
-        <v>0.1821360488139072</v>
+        <v>0.1035656238325607</v>
       </c>
       <c r="D10">
-        <v>-0.0124437798435316</v>
+        <v>-0.004014271696678266</v>
       </c>
       <c r="E10">
-        <v>-0.04745146717044643</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>-0.02423394253465734</v>
+      </c>
+      <c r="F10">
+        <v>-0.03787185522302935</v>
+      </c>
+      <c r="G10">
+        <v>0.005469527423649707</v>
+      </c>
+      <c r="H10">
+        <v>-0.06511897487445481</v>
+      </c>
+      <c r="I10">
+        <v>0.121063548784395</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>-0.02305545271274102</v>
+        <v>0.009491039140933686</v>
       </c>
       <c r="C11">
-        <v>-0.04000262453431713</v>
+        <v>-0.05315393832181222</v>
       </c>
       <c r="D11">
-        <v>-0.05118450574142006</v>
+        <v>0.04468099061155832</v>
       </c>
       <c r="E11">
-        <v>0.0172719190801128</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>0.01895720821099808</v>
+      </c>
+      <c r="F11">
+        <v>0.01158405862922703</v>
+      </c>
+      <c r="G11">
+        <v>-0.006839051131520436</v>
+      </c>
+      <c r="H11">
+        <v>0.05125123229754733</v>
+      </c>
+      <c r="I11">
+        <v>-0.04068425555163947</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>-0.02543673215491055</v>
+        <v>0.01024508666625241</v>
       </c>
       <c r="C12">
-        <v>-0.04023312921386681</v>
+        <v>-0.05013096006663205</v>
       </c>
       <c r="D12">
-        <v>-0.06555382323962418</v>
+        <v>0.05003613778875509</v>
       </c>
       <c r="E12">
-        <v>0.009201611919190798</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>0.01815483374292085</v>
+      </c>
+      <c r="F12">
+        <v>0.01784548404342765</v>
+      </c>
+      <c r="G12">
+        <v>-0.03148413636086121</v>
+      </c>
+      <c r="H12">
+        <v>0.07039314442216717</v>
+      </c>
+      <c r="I12">
+        <v>-0.02576370531616013</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>-0.006143564992700809</v>
+        <v>-0.001261841556565945</v>
       </c>
       <c r="C13">
-        <v>-0.02568612586856493</v>
+        <v>-0.04329518360150708</v>
       </c>
       <c r="D13">
-        <v>-0.1543188661783878</v>
+        <v>0.1529202182674901</v>
       </c>
       <c r="E13">
-        <v>-0.02538798674723328</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>0.03829231124729665</v>
+      </c>
+      <c r="F13">
+        <v>-0.03577248969910948</v>
+      </c>
+      <c r="G13">
+        <v>0.02692351864738628</v>
+      </c>
+      <c r="H13">
+        <v>0.08634138357014486</v>
+      </c>
+      <c r="I13">
+        <v>0.09425379788892595</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>0.001678631603443784</v>
+        <v>-0.0007797161206676636</v>
       </c>
       <c r="C14">
-        <v>-0.02042752970721555</v>
+        <v>-0.02763336215826891</v>
       </c>
       <c r="D14">
-        <v>-0.1076332001760042</v>
+        <v>0.1038874007793178</v>
       </c>
       <c r="E14">
-        <v>-0.004338481158387674</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>0.03316264658842503</v>
+      </c>
+      <c r="F14">
+        <v>-0.02265868441743417</v>
+      </c>
+      <c r="G14">
+        <v>-0.002408434342366231</v>
+      </c>
+      <c r="H14">
+        <v>0.1251712799511172</v>
+      </c>
+      <c r="I14">
+        <v>0.01372241089728212</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B15">
-        <v>0.001220875706697355</v>
+        <v>-0.000956087567424037</v>
       </c>
       <c r="C15">
-        <v>-0.01103447345779364</v>
+        <v>-0.01917272516489055</v>
       </c>
       <c r="D15">
-        <v>-0.0269945255861003</v>
+        <v>0.05348868018556437</v>
       </c>
       <c r="E15">
-        <v>0.005678418574476231</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>0.006149637891804132</v>
+      </c>
+      <c r="F15">
+        <v>-0.00313178205690654</v>
+      </c>
+      <c r="G15">
+        <v>0.02049354929439231</v>
+      </c>
+      <c r="H15">
+        <v>0.02474526549712973</v>
+      </c>
+      <c r="I15">
+        <v>-0.01988858826302812</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>-0.02329985012642349</v>
+        <v>0.01011592413475572</v>
       </c>
       <c r="C16">
-        <v>-0.03803626498467734</v>
+        <v>-0.04849001204316553</v>
       </c>
       <c r="D16">
-        <v>-0.0583755357153837</v>
+        <v>0.0458354228193112</v>
       </c>
       <c r="E16">
-        <v>0.01096623918633402</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>0.02058800975620721</v>
+      </c>
+      <c r="F16">
+        <v>0.008302789169436419</v>
+      </c>
+      <c r="G16">
+        <v>-0.01926203380553828</v>
+      </c>
+      <c r="H16">
+        <v>0.0539288514822293</v>
+      </c>
+      <c r="I16">
+        <v>-0.03807581004777313</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1187,22 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,146 +1216,254 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B19">
-        <v>-0.006995326870598908</v>
+        <v>0.0004592459241971862</v>
       </c>
       <c r="C19">
-        <v>-0.0212181095260164</v>
+        <v>-0.01993819450055606</v>
       </c>
       <c r="D19">
-        <v>-0.1164960850097172</v>
+        <v>0.07389352893338882</v>
       </c>
       <c r="E19">
-        <v>-0.03851523196939619</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>-0.02040262145732948</v>
+      </c>
+      <c r="F19">
+        <v>-0.009797364722557506</v>
+      </c>
+      <c r="G19">
+        <v>0.01063865784313267</v>
+      </c>
+      <c r="H19">
+        <v>0.07152562271676655</v>
+      </c>
+      <c r="I19">
+        <v>0.04719202903296376</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>-0.005907897904839332</v>
+        <v>0.004217089056283959</v>
       </c>
       <c r="C20">
-        <v>-0.02535993042456376</v>
+        <v>-0.03761934179619409</v>
       </c>
       <c r="D20">
-        <v>-0.09235285852096839</v>
+        <v>0.09710588630443474</v>
       </c>
       <c r="E20">
-        <v>-0.03041095746151694</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>0.008098418460311594</v>
+      </c>
+      <c r="F20">
+        <v>-0.02675439467137727</v>
+      </c>
+      <c r="G20">
+        <v>-0.005354696824954018</v>
+      </c>
+      <c r="H20">
+        <v>0.05849147978275764</v>
+      </c>
+      <c r="I20">
+        <v>-0.001192612299462194</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B21">
-        <v>-0.008976828916421573</v>
+        <v>0.003372199769418686</v>
       </c>
       <c r="C21">
-        <v>-0.03055979171157298</v>
+        <v>-0.04102333610346346</v>
       </c>
       <c r="D21">
-        <v>-0.1687233006281314</v>
+        <v>0.1345764020414628</v>
       </c>
       <c r="E21">
-        <v>-0.0609122928640909</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>0.001148085613531464</v>
+      </c>
+      <c r="F21">
+        <v>-0.06967977173389898</v>
+      </c>
+      <c r="G21">
+        <v>-0.003454520745201765</v>
+      </c>
+      <c r="H21">
+        <v>0.1795338020751873</v>
+      </c>
+      <c r="I21">
+        <v>0.1144578155336624</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B22">
-        <v>-0.003606106130746774</v>
+        <v>-0.01096174127172762</v>
       </c>
       <c r="C22">
-        <v>-0.05943784528660152</v>
+        <v>-0.08042285477330285</v>
       </c>
       <c r="D22">
-        <v>-0.2207347356358643</v>
+        <v>0.2613576707246098</v>
       </c>
       <c r="E22">
-        <v>0.03786843845602281</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>0.04863600164798881</v>
+      </c>
+      <c r="F22">
+        <v>-0.03414895353840824</v>
+      </c>
+      <c r="G22">
+        <v>0.376704591727237</v>
+      </c>
+      <c r="H22">
+        <v>-0.3653673279862174</v>
+      </c>
+      <c r="I22">
+        <v>-0.1198660903156437</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B23">
-        <v>-0.003878445730332389</v>
+        <v>-0.01046377069921053</v>
       </c>
       <c r="C23">
-        <v>-0.05990776907582659</v>
+        <v>-0.08137584397459273</v>
       </c>
       <c r="D23">
-        <v>-0.2203053086533557</v>
+        <v>0.2619668448568708</v>
       </c>
       <c r="E23">
-        <v>0.03770025000117798</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>0.04551327546293653</v>
+      </c>
+      <c r="F23">
+        <v>-0.03349831842567121</v>
+      </c>
+      <c r="G23">
+        <v>0.3756205484840264</v>
+      </c>
+      <c r="H23">
+        <v>-0.3659427581684805</v>
+      </c>
+      <c r="I23">
+        <v>-0.1217473864665463</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>-0.03020850235795296</v>
+        <v>0.00945047721181491</v>
       </c>
       <c r="C24">
-        <v>-0.05606765158187364</v>
+        <v>-0.06587952709168207</v>
       </c>
       <c r="D24">
-        <v>-0.07086277238572991</v>
+        <v>0.05408391365951579</v>
       </c>
       <c r="E24">
-        <v>0.008403453393177253</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>0.02472349308570371</v>
+      </c>
+      <c r="F24">
+        <v>0.006457168982764062</v>
+      </c>
+      <c r="G24">
+        <v>-0.01429909927726008</v>
+      </c>
+      <c r="H24">
+        <v>0.07939162103046643</v>
+      </c>
+      <c r="I24">
+        <v>-0.03660413912526313</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B25">
-        <v>-0.03206337038503336</v>
+        <v>0.01272064949958961</v>
       </c>
       <c r="C25">
-        <v>-0.04698685260730542</v>
+        <v>-0.06114437754526001</v>
       </c>
       <c r="D25">
-        <v>-0.06405067313274519</v>
+        <v>0.05161503295935811</v>
       </c>
       <c r="E25">
-        <v>0.002704557955860407</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>0.01067479982478828</v>
+      </c>
+      <c r="F25">
+        <v>0.008101936506219647</v>
+      </c>
+      <c r="G25">
+        <v>-0.01774265091487094</v>
+      </c>
+      <c r="H25">
+        <v>0.04586565075084804</v>
+      </c>
+      <c r="I25">
+        <v>-0.02562754916141874</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B26">
-        <v>-0.01019037961497147</v>
+        <v>0.005792994719717831</v>
       </c>
       <c r="C26">
-        <v>-0.01465590023659144</v>
+        <v>-0.02540842754680999</v>
       </c>
       <c r="D26">
-        <v>-0.08186356945926514</v>
+        <v>0.06924477158022022</v>
       </c>
       <c r="E26">
-        <v>-0.01312927929342029</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>0.02568678283632508</v>
+      </c>
+      <c r="F26">
+        <v>-0.02215262053277425</v>
+      </c>
+      <c r="G26">
+        <v>-0.01436578204832092</v>
+      </c>
+      <c r="H26">
+        <v>0.08527844046153893</v>
+      </c>
+      <c r="I26">
+        <v>0.04945460619972134</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,163 +1477,283 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B28">
-        <v>-0.2332905245895315</v>
+        <v>0.3198790395603527</v>
       </c>
       <c r="C28">
-        <v>0.2272828392180655</v>
+        <v>0.109071689646702</v>
       </c>
       <c r="D28">
-        <v>-0.02324003838928136</v>
+        <v>-0.007810421388256654</v>
       </c>
       <c r="E28">
-        <v>-0.06733426853471296</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>-0.05166137381127151</v>
+      </c>
+      <c r="F28">
+        <v>-0.03638214842877648</v>
+      </c>
+      <c r="G28">
+        <v>0.01968614517741258</v>
+      </c>
+      <c r="H28">
+        <v>-0.0127194326241961</v>
+      </c>
+      <c r="I28">
+        <v>0.1483062913596812</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B29">
-        <v>-0.001872214234352677</v>
+        <v>-0.001910320582302802</v>
       </c>
       <c r="C29">
-        <v>-0.02322907750535847</v>
+        <v>-0.0300540923649861</v>
       </c>
       <c r="D29">
-        <v>-0.1022703167236314</v>
+        <v>0.09777184010799783</v>
       </c>
       <c r="E29">
-        <v>-0.008623100434498116</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>0.04298018031585372</v>
+      </c>
+      <c r="F29">
+        <v>-0.02907400697872205</v>
+      </c>
+      <c r="G29">
+        <v>-0.01496794010744758</v>
+      </c>
+      <c r="H29">
+        <v>0.1286522539634004</v>
+      </c>
+      <c r="I29">
+        <v>0.01621308892188078</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B30">
-        <v>-0.02823768832858958</v>
+        <v>0.01678794570388337</v>
       </c>
       <c r="C30">
-        <v>-0.0571670882337204</v>
+        <v>-0.08264883304559625</v>
       </c>
       <c r="D30">
-        <v>-0.167735733899734</v>
+        <v>0.1633809024774546</v>
       </c>
       <c r="E30">
-        <v>-0.01717497759938265</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>0.03938479409899791</v>
+      </c>
+      <c r="F30">
+        <v>-0.0382486910623539</v>
+      </c>
+      <c r="G30">
+        <v>0.0334738470571878</v>
+      </c>
+      <c r="H30">
+        <v>0.06213975897766557</v>
+      </c>
+      <c r="I30">
+        <v>-0.06593764564076524</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B31">
-        <v>-0.04906997949915345</v>
+        <v>0.01050488722482528</v>
       </c>
       <c r="C31">
-        <v>-0.08316906168038156</v>
+        <v>-0.09249386107806459</v>
       </c>
       <c r="D31">
-        <v>-0.072732015472977</v>
+        <v>0.04136259249448466</v>
       </c>
       <c r="E31">
-        <v>-0.008511264481254223</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>0.008068580344612043</v>
+      </c>
+      <c r="F31">
+        <v>-0.01114163401585704</v>
+      </c>
+      <c r="G31">
+        <v>-0.0008873930353196674</v>
+      </c>
+      <c r="H31">
+        <v>0.04794003072522526</v>
+      </c>
+      <c r="I31">
+        <v>0.07360632410480701</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B32">
-        <v>-0.0227744527119651</v>
+        <v>0.008822230111530481</v>
       </c>
       <c r="C32">
-        <v>-0.03173266204417506</v>
+        <v>-0.04437187769994612</v>
       </c>
       <c r="D32">
-        <v>-0.1114972509086133</v>
+        <v>0.1114259085341977</v>
       </c>
       <c r="E32">
-        <v>-0.06232826634195286</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>-0.007294541270451709</v>
+      </c>
+      <c r="F32">
+        <v>-0.04867970376651265</v>
+      </c>
+      <c r="G32">
+        <v>0.02575889356499537</v>
+      </c>
+      <c r="H32">
+        <v>0.05054814639231342</v>
+      </c>
+      <c r="I32">
+        <v>0.08024817536933194</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B33">
-        <v>-0.01647802876703947</v>
+        <v>0.006584927127969437</v>
       </c>
       <c r="C33">
-        <v>-0.0409504462013988</v>
+        <v>-0.05571172769142253</v>
       </c>
       <c r="D33">
-        <v>-0.1493201709499163</v>
+        <v>0.1275808945564495</v>
       </c>
       <c r="E33">
-        <v>-0.03369990060564477</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>0.0153132966752064</v>
+      </c>
+      <c r="F33">
+        <v>-0.02728233365318184</v>
+      </c>
+      <c r="G33">
+        <v>0.00224698459584948</v>
+      </c>
+      <c r="H33">
+        <v>0.07206617997044239</v>
+      </c>
+      <c r="I33">
+        <v>0.01811289497381734</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B34">
-        <v>-0.02716027692860716</v>
+        <v>0.006554069252319557</v>
       </c>
       <c r="C34">
-        <v>-0.05745793094506706</v>
+        <v>-0.06221924831130699</v>
       </c>
       <c r="D34">
-        <v>-0.05051951045356098</v>
+        <v>0.03181739294121533</v>
       </c>
       <c r="E34">
-        <v>0.04921329532271634</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>0.02815737555666199</v>
+      </c>
+      <c r="F34">
+        <v>0.03542368010930238</v>
+      </c>
+      <c r="G34">
+        <v>-0.01101634313961243</v>
+      </c>
+      <c r="H34">
+        <v>0.06039537036466318</v>
+      </c>
+      <c r="I34">
+        <v>-0.01515409124136756</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>0.0002127474356962889</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>-0.005045434163976379</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>0.01602388659662504</v>
       </c>
       <c r="E35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>0.004228312497058624</v>
+      </c>
+      <c r="F35">
+        <v>-0.001494542326996556</v>
+      </c>
+      <c r="G35">
+        <v>-0.004575663816385714</v>
+      </c>
+      <c r="H35">
+        <v>0.01457598450546805</v>
+      </c>
+      <c r="I35">
+        <v>-0.007047796854341856</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B36">
-        <v>-0.009813625417594223</v>
+        <v>0.006595912642135</v>
       </c>
       <c r="C36">
-        <v>-0.006587972863824942</v>
+        <v>-0.01981410630444702</v>
       </c>
       <c r="D36">
-        <v>-0.09427712503620765</v>
+        <v>0.07813015117434079</v>
       </c>
       <c r="E36">
-        <v>-0.03829681018963297</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>0.006895477881699934</v>
+      </c>
+      <c r="F36">
+        <v>-0.03588176275134064</v>
+      </c>
+      <c r="G36">
+        <v>-0.004882665166055375</v>
+      </c>
+      <c r="H36">
+        <v>0.0658849481678677</v>
+      </c>
+      <c r="I36">
+        <v>0.0357707199271157</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,78 +1767,138 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B38">
-        <v>-0.007603231035961974</v>
+        <v>0.01438035027987808</v>
       </c>
       <c r="C38">
-        <v>-0.006690909048692433</v>
+        <v>-0.01533438453299201</v>
       </c>
       <c r="D38">
-        <v>-0.08972309912919531</v>
+        <v>0.08537912741666552</v>
       </c>
       <c r="E38">
-        <v>-0.005704181918525833</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>-0.008655118412999766</v>
+      </c>
+      <c r="F38">
+        <v>0.008889955115756583</v>
+      </c>
+      <c r="G38">
+        <v>0.01279174988905795</v>
+      </c>
+      <c r="H38">
+        <v>0.05736003920015316</v>
+      </c>
+      <c r="I38">
+        <v>0.03603226060778471</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B39">
-        <v>-0.02373746036991662</v>
+        <v>0.00640438061840947</v>
       </c>
       <c r="C39">
-        <v>-0.05680222210726277</v>
+        <v>-0.07525728569034337</v>
       </c>
       <c r="D39">
-        <v>-0.1178403388437032</v>
+        <v>0.1067137762158626</v>
       </c>
       <c r="E39">
-        <v>0.02355564050961324</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>0.04817625453185435</v>
+      </c>
+      <c r="F39">
+        <v>0.005208724253429941</v>
+      </c>
+      <c r="G39">
+        <v>-0.01814475911412988</v>
+      </c>
+      <c r="H39">
+        <v>0.1056296935257329</v>
+      </c>
+      <c r="I39">
+        <v>-0.0708812860665269</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B40">
-        <v>-0.01222394170911341</v>
+        <v>0.01156424891981915</v>
       </c>
       <c r="C40">
-        <v>-0.01730890442567673</v>
+        <v>-0.02509477924653302</v>
       </c>
       <c r="D40">
-        <v>-0.1171427421673286</v>
+        <v>0.09683981999186801</v>
       </c>
       <c r="E40">
-        <v>0.02703815264726274</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>0.0434645412200219</v>
+      </c>
+      <c r="F40">
+        <v>0.02404492715427978</v>
+      </c>
+      <c r="G40">
+        <v>0.0596451970960328</v>
+      </c>
+      <c r="H40">
+        <v>0.08247798303653714</v>
+      </c>
+      <c r="I40">
+        <v>0.06357140483193921</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B41">
-        <v>-0.01277141809798875</v>
+        <v>0.01209344196023543</v>
       </c>
       <c r="C41">
-        <v>-0.006868842997306716</v>
+        <v>-0.01533587655078593</v>
       </c>
       <c r="D41">
-        <v>-0.05932468270066938</v>
+        <v>0.04159054544121288</v>
       </c>
       <c r="E41">
-        <v>-0.02923479722983589</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>-0.02089431476784185</v>
+      </c>
+      <c r="F41">
+        <v>-0.01699127815728018</v>
+      </c>
+      <c r="G41">
+        <v>0.007988092651668714</v>
+      </c>
+      <c r="H41">
+        <v>0.04470805482603806</v>
+      </c>
+      <c r="I41">
+        <v>0.04884009982867506</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1408,44 +1912,80 @@
       <c r="E42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B43">
-        <v>-0.007720368563664932</v>
+        <v>0.006280811409704619</v>
       </c>
       <c r="C43">
-        <v>-0.008406117573138264</v>
+        <v>-0.01515460210242852</v>
       </c>
       <c r="D43">
-        <v>-0.0709487255450645</v>
+        <v>0.05138331895787377</v>
       </c>
       <c r="E43">
-        <v>-0.0175588127843616</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>-0.003826021288043025</v>
+      </c>
+      <c r="F43">
+        <v>-0.01350949678839255</v>
+      </c>
+      <c r="G43">
+        <v>0.005042599509031878</v>
+      </c>
+      <c r="H43">
+        <v>0.06579890867206961</v>
+      </c>
+      <c r="I43">
+        <v>0.0365475218810874</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B44">
-        <v>-0.01766840843263381</v>
+        <v>0.0107936991860607</v>
       </c>
       <c r="C44">
-        <v>-0.02547320253519037</v>
+        <v>-0.04490919806811922</v>
       </c>
       <c r="D44">
-        <v>-0.1147449624855655</v>
+        <v>0.1192373557218863</v>
       </c>
       <c r="E44">
-        <v>-0.04084487950177873</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>0.02179831912211385</v>
+      </c>
+      <c r="F44">
+        <v>-0.02779829438587455</v>
+      </c>
+      <c r="G44">
+        <v>0.01676534258865383</v>
+      </c>
+      <c r="H44">
+        <v>0.05284679887857786</v>
+      </c>
+      <c r="I44">
+        <v>-0.05710175595927285</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,61 +1999,109 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B46">
-        <v>-0.01009204508465644</v>
+        <v>-0.001645784049046329</v>
       </c>
       <c r="C46">
-        <v>-0.02948797850222686</v>
+        <v>-0.03989843628347932</v>
       </c>
       <c r="D46">
-        <v>-0.09817708336454588</v>
+        <v>0.08423270224737914</v>
       </c>
       <c r="E46">
-        <v>-0.01501061147748625</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>0.02567492704013309</v>
+      </c>
+      <c r="F46">
+        <v>-0.02668082124921562</v>
+      </c>
+      <c r="G46">
+        <v>0.0003328697417050402</v>
+      </c>
+      <c r="H46">
+        <v>0.1438806161969214</v>
+      </c>
+      <c r="I46">
+        <v>0.02177203501677915</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B47">
-        <v>-0.09080445673469825</v>
+        <v>0.03681782424795917</v>
       </c>
       <c r="C47">
-        <v>-0.09997782461759103</v>
+        <v>-0.1229734491653193</v>
       </c>
       <c r="D47">
-        <v>-0.06063454034429341</v>
+        <v>0.02349140347559009</v>
       </c>
       <c r="E47">
-        <v>-0.0236387756393113</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>-0.02066485368196832</v>
+      </c>
+      <c r="F47">
+        <v>0.01450005168103946</v>
+      </c>
+      <c r="G47">
+        <v>-0.05365598260455653</v>
+      </c>
+      <c r="H47">
+        <v>0.03376765176040552</v>
+      </c>
+      <c r="I47">
+        <v>0.1391825881567876</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B48">
-        <v>-0.007933279366597466</v>
+        <v>0.004640384977625324</v>
       </c>
       <c r="C48">
-        <v>-0.01600894908745394</v>
+        <v>-0.02809413518187698</v>
       </c>
       <c r="D48">
-        <v>-0.09664748341161578</v>
+        <v>0.08228511337604258</v>
       </c>
       <c r="E48">
-        <v>-0.04986745257846142</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>-0.004580941134884779</v>
+      </c>
+      <c r="F48">
+        <v>-0.03990656011039177</v>
+      </c>
+      <c r="G48">
+        <v>-0.002270771335391334</v>
+      </c>
+      <c r="H48">
+        <v>0.09851541910254941</v>
+      </c>
+      <c r="I48">
+        <v>0.02325362899065357</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1527,44 +2115,80 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B50">
-        <v>-0.04512659235342844</v>
+        <v>0.01331207553758264</v>
       </c>
       <c r="C50">
-        <v>-0.06045350291847273</v>
+        <v>-0.07513238894238711</v>
       </c>
       <c r="D50">
-        <v>-0.07134903489018293</v>
+        <v>0.04723292441349537</v>
       </c>
       <c r="E50">
-        <v>-0.00429040782229733</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>0.0008815108204772405</v>
+      </c>
+      <c r="F50">
+        <v>-0.006018637147316042</v>
+      </c>
+      <c r="G50">
+        <v>0.01880893774603444</v>
+      </c>
+      <c r="H50">
+        <v>0.03984104652307514</v>
+      </c>
+      <c r="I50">
+        <v>0.1268694291752717</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B51">
-        <v>-0.003814398195485312</v>
+        <v>0.001873109984645096</v>
       </c>
       <c r="C51">
-        <v>-0.004132813117582774</v>
+        <v>-0.01619566439633285</v>
       </c>
       <c r="D51">
-        <v>-0.05927268969657256</v>
+        <v>0.06679922645848947</v>
       </c>
       <c r="E51">
-        <v>-0.00198298268193469</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>0.03609057222462874</v>
+      </c>
+      <c r="F51">
+        <v>-0.03764980119146564</v>
+      </c>
+      <c r="G51">
+        <v>0.0340575964563359</v>
+      </c>
+      <c r="H51">
+        <v>0.05311234753166986</v>
+      </c>
+      <c r="I51">
+        <v>0.01356075288452287</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,78 +2202,138 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B53">
-        <v>-0.1177571006215734</v>
+        <v>0.06030612505394178</v>
       </c>
       <c r="C53">
-        <v>-0.1147465842646898</v>
+        <v>-0.1562382529740376</v>
       </c>
       <c r="D53">
-        <v>-0.0196875755994223</v>
+        <v>-0.01371698246003185</v>
       </c>
       <c r="E53">
-        <v>-0.05494049555126521</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>-0.03516250326988241</v>
+      </c>
+      <c r="F53">
+        <v>-0.04680831287436746</v>
+      </c>
+      <c r="G53">
+        <v>0.007162790299512127</v>
+      </c>
+      <c r="H53">
+        <v>0.005216918798072457</v>
+      </c>
+      <c r="I53">
+        <v>0.08338298056096652</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B54">
-        <v>-0.01912462334954259</v>
+        <v>0.0100878926093252</v>
       </c>
       <c r="C54">
-        <v>-0.02307509446049985</v>
+        <v>-0.04093809836344128</v>
       </c>
       <c r="D54">
-        <v>-0.1053623706990511</v>
+        <v>0.08331888069729033</v>
       </c>
       <c r="E54">
-        <v>0.002882945376027569</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>0.01134351215513644</v>
+      </c>
+      <c r="F54">
+        <v>0.004368265534073747</v>
+      </c>
+      <c r="G54">
+        <v>0.01552285442656846</v>
+      </c>
+      <c r="H54">
+        <v>0.09900340807330141</v>
+      </c>
+      <c r="I54">
+        <v>0.04919892879841811</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B55">
-        <v>-0.1039959813963901</v>
+        <v>0.04727533968566282</v>
       </c>
       <c r="C55">
-        <v>-0.09713850645697911</v>
+        <v>-0.128761449897998</v>
       </c>
       <c r="D55">
-        <v>-0.008327147970604281</v>
+        <v>-0.02542751902958257</v>
       </c>
       <c r="E55">
-        <v>-0.01238816608070962</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>0.001202381453248561</v>
+      </c>
+      <c r="F55">
+        <v>-0.01268591758143181</v>
+      </c>
+      <c r="G55">
+        <v>0.01396796307275832</v>
+      </c>
+      <c r="H55">
+        <v>0.01164476757118055</v>
+      </c>
+      <c r="I55">
+        <v>0.08789856448662735</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B56">
-        <v>-0.1455734227537</v>
+        <v>0.06566696375945844</v>
       </c>
       <c r="C56">
-        <v>-0.1288600147256367</v>
+        <v>-0.1870144113602912</v>
       </c>
       <c r="D56">
-        <v>-0.006852216584960885</v>
+        <v>-0.02282499940233647</v>
       </c>
       <c r="E56">
-        <v>-0.01386129780520947</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>-0.03446195385435478</v>
+      </c>
+      <c r="F56">
+        <v>-0.01415393556938575</v>
+      </c>
+      <c r="G56">
+        <v>0.06381348418031649</v>
+      </c>
+      <c r="H56">
+        <v>0.00767328072746469</v>
+      </c>
+      <c r="I56">
+        <v>0.1080666706503001</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1663,78 +2347,138 @@
       <c r="E57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B58">
-        <v>0.001455513590292543</v>
+        <v>0.005510114449214234</v>
       </c>
       <c r="C58">
-        <v>-0.01286694179743002</v>
+        <v>-0.04739232350251196</v>
       </c>
       <c r="D58">
-        <v>-0.2279502335063827</v>
+        <v>0.2867048475498959</v>
       </c>
       <c r="E58">
-        <v>-0.07227404632901097</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>-0.02165148964293053</v>
+      </c>
+      <c r="F58">
+        <v>-0.09542805931000407</v>
+      </c>
+      <c r="G58">
+        <v>0.1320773486732201</v>
+      </c>
+      <c r="H58">
+        <v>-0.08264055046642634</v>
+      </c>
+      <c r="I58">
+        <v>-0.05689533658979899</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B59">
-        <v>-0.1626628081588067</v>
+        <v>0.2447378345822567</v>
       </c>
       <c r="C59">
-        <v>0.1628079478342076</v>
+        <v>0.07379359287562667</v>
       </c>
       <c r="D59">
-        <v>-0.05035204056482857</v>
+        <v>0.05953615963182353</v>
       </c>
       <c r="E59">
-        <v>-0.03827522521847901</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>-0.03421549322249782</v>
+      </c>
+      <c r="F59">
+        <v>-0.01530436668021842</v>
+      </c>
+      <c r="G59">
+        <v>0.004305261362535241</v>
+      </c>
+      <c r="H59">
+        <v>-0.01140601613734436</v>
+      </c>
+      <c r="I59">
+        <v>0.04145564251131802</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B60">
-        <v>-0.2003153771975787</v>
+        <v>0.1522188795541852</v>
       </c>
       <c r="C60">
-        <v>-0.08192177485006145</v>
+        <v>-0.167688417991732</v>
       </c>
       <c r="D60">
-        <v>-0.1563547557189348</v>
+        <v>0.08164026536069922</v>
       </c>
       <c r="E60">
-        <v>0.1821994978000087</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>0.2257091115627243</v>
+      </c>
+      <c r="F60">
+        <v>0.1620519193739642</v>
+      </c>
+      <c r="G60">
+        <v>-0.2121365963569543</v>
+      </c>
+      <c r="H60">
+        <v>-0.2438526338197378</v>
+      </c>
+      <c r="I60">
+        <v>-0.0309043691418236</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B61">
-        <v>-0.03385877827158675</v>
+        <v>0.01336537616065018</v>
       </c>
       <c r="C61">
-        <v>-0.05276590523832937</v>
+        <v>-0.07164312873128512</v>
       </c>
       <c r="D61">
-        <v>-0.1071526388191193</v>
+        <v>0.08341754136160014</v>
       </c>
       <c r="E61">
-        <v>0.01157609734873521</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>0.03611227391898125</v>
+      </c>
+      <c r="F61">
+        <v>0.01477398625509731</v>
+      </c>
+      <c r="G61">
+        <v>-0.03307482520882443</v>
+      </c>
+      <c r="H61">
+        <v>0.09372558027421717</v>
+      </c>
+      <c r="I61">
+        <v>-0.02370863649853114</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2492,225 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B63">
-        <v>-0.01034115592665672</v>
+        <v>0.001593613983691051</v>
       </c>
       <c r="C63">
-        <v>-0.02636198068083629</v>
+        <v>-0.03597675345951255</v>
       </c>
       <c r="D63">
-        <v>-0.09331210850718948</v>
+        <v>0.07105467097008283</v>
       </c>
       <c r="E63">
-        <v>-0.01082613391325534</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>0.02781994937827963</v>
+      </c>
+      <c r="F63">
+        <v>-0.02207439671047566</v>
+      </c>
+      <c r="G63">
+        <v>0.004569329407706242</v>
+      </c>
+      <c r="H63">
+        <v>0.0667132702318185</v>
+      </c>
+      <c r="I63">
+        <v>0.004844860859966551</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B64">
-        <v>-0.06662093963162524</v>
+        <v>0.02296474996939393</v>
       </c>
       <c r="C64">
-        <v>-0.07876398445711982</v>
+        <v>-0.1045389912952593</v>
       </c>
       <c r="D64">
-        <v>-0.04051729873767883</v>
+        <v>0.02682353992694722</v>
       </c>
       <c r="E64">
-        <v>-0.01844310652197269</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>0.02756200647837957</v>
+      </c>
+      <c r="F64">
+        <v>-0.02185126138434473</v>
+      </c>
+      <c r="G64">
+        <v>-0.06014922804405032</v>
+      </c>
+      <c r="H64">
+        <v>0.1077388672325955</v>
+      </c>
+      <c r="I64">
+        <v>-0.06685310513085826</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B65">
-        <v>-0.02701566341990134</v>
+        <v>0.02253132872909617</v>
       </c>
       <c r="C65">
-        <v>-0.01510336942494536</v>
+        <v>-0.03785608703940398</v>
       </c>
       <c r="D65">
-        <v>-0.1183820203962013</v>
+        <v>0.1171531626242324</v>
       </c>
       <c r="E65">
-        <v>-0.0001409207746022544</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>0.04668960668078108</v>
+      </c>
+      <c r="F65">
+        <v>-0.00701393324647206</v>
+      </c>
+      <c r="G65">
+        <v>-0.02089809676490135</v>
+      </c>
+      <c r="H65">
+        <v>0.04692971389290525</v>
+      </c>
+      <c r="I65">
+        <v>0.008525672010542195</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B66">
-        <v>-0.02643718005585276</v>
+        <v>0.004581201577942419</v>
       </c>
       <c r="C66">
-        <v>-0.06425850556494229</v>
+        <v>-0.09029148651165164</v>
       </c>
       <c r="D66">
-        <v>-0.121415559638251</v>
+        <v>0.1302961395374881</v>
       </c>
       <c r="E66">
-        <v>0.02670340151812674</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>0.03398679176639446</v>
+      </c>
+      <c r="F66">
+        <v>0.01296392022063339</v>
+      </c>
+      <c r="G66">
+        <v>0.001861087199612382</v>
+      </c>
+      <c r="H66">
+        <v>0.06228215418906126</v>
+      </c>
+      <c r="I66">
+        <v>-0.07575227417406449</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B67">
-        <v>-0.02814456307333389</v>
+        <v>0.02503171318841026</v>
       </c>
       <c r="C67">
-        <v>-0.01774633262728886</v>
+        <v>-0.02797429739705598</v>
       </c>
       <c r="D67">
-        <v>-0.04448458397659496</v>
+        <v>0.03501564024407178</v>
       </c>
       <c r="E67">
-        <v>0.01877087276437072</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>0.006309717107545429</v>
+      </c>
+      <c r="F67">
+        <v>0.03133831213643575</v>
+      </c>
+      <c r="G67">
+        <v>-0.0004936638891779703</v>
+      </c>
+      <c r="H67">
+        <v>0.0635253821834071</v>
+      </c>
+      <c r="I67">
+        <v>0.02420612161978081</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B68">
-        <v>-0.1886572623306925</v>
+        <v>0.2664760169705364</v>
       </c>
       <c r="C68">
-        <v>0.1787489356825527</v>
+        <v>0.07475366577188805</v>
       </c>
       <c r="D68">
-        <v>-0.03217881750176847</v>
+        <v>0.03360538085479613</v>
       </c>
       <c r="E68">
-        <v>-0.01292760190508447</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>0.005177611006851421</v>
+      </c>
+      <c r="F68">
+        <v>-0.02975632733623802</v>
+      </c>
+      <c r="G68">
+        <v>0.06805120374692013</v>
+      </c>
+      <c r="H68">
+        <v>-0.03371891441500568</v>
+      </c>
+      <c r="I68">
+        <v>0.09888593834359859</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B69">
-        <v>-0.07018006758169566</v>
+        <v>0.02182688155755089</v>
       </c>
       <c r="C69">
-        <v>-0.1129533014217956</v>
+        <v>-0.1204650792320141</v>
       </c>
       <c r="D69">
-        <v>-0.08383215292336012</v>
+        <v>0.03695448895197161</v>
       </c>
       <c r="E69">
-        <v>-0.007774743775716199</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>0.002115735386302961</v>
+      </c>
+      <c r="F69">
+        <v>0.01711194660852066</v>
+      </c>
+      <c r="G69">
+        <v>-0.04222255396889862</v>
+      </c>
+      <c r="H69">
+        <v>0.03516564720429807</v>
+      </c>
+      <c r="I69">
+        <v>0.09640442526680461</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,435 +2724,747 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B71">
-        <v>-0.1945948596061485</v>
+        <v>0.2685654431255714</v>
       </c>
       <c r="C71">
-        <v>0.19855162469406</v>
+        <v>0.09054596008653509</v>
       </c>
       <c r="D71">
-        <v>-0.02896077665192963</v>
+        <v>0.02255303748514351</v>
       </c>
       <c r="E71">
-        <v>-0.01457890253860697</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>-0.007364952720603828</v>
+      </c>
+      <c r="F71">
+        <v>-0.01467256689038344</v>
+      </c>
+      <c r="G71">
+        <v>0.0338677246915846</v>
+      </c>
+      <c r="H71">
+        <v>0.02188855814899634</v>
+      </c>
+      <c r="I71">
+        <v>0.165054990949579</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B72">
-        <v>-0.1136827109788604</v>
+        <v>0.06221127820068573</v>
       </c>
       <c r="C72">
-        <v>-0.0651336718913289</v>
+        <v>-0.121320772720919</v>
       </c>
       <c r="D72">
-        <v>-0.0985392898303617</v>
+        <v>0.06371358559983563</v>
       </c>
       <c r="E72">
-        <v>0.05229350707316251</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>0.0884120259031223</v>
+      </c>
+      <c r="F72">
+        <v>0.01679548441591514</v>
+      </c>
+      <c r="G72">
+        <v>-0.03056412340727133</v>
+      </c>
+      <c r="H72">
+        <v>0.05604987860931119</v>
+      </c>
+      <c r="I72">
+        <v>-0.04756520101007999</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B73">
-        <v>-0.1858174152098004</v>
+        <v>0.1379188254170563</v>
       </c>
       <c r="C73">
-        <v>-0.04949529317719394</v>
+        <v>-0.1424794641095179</v>
       </c>
       <c r="D73">
-        <v>-0.2293010778861494</v>
+        <v>0.09846814437356172</v>
       </c>
       <c r="E73">
-        <v>0.2699670376098202</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>0.3744658741350763</v>
+      </c>
+      <c r="F73">
+        <v>0.248021473900936</v>
+      </c>
+      <c r="G73">
+        <v>-0.4142582999140089</v>
+      </c>
+      <c r="H73">
+        <v>-0.2016903675794591</v>
+      </c>
+      <c r="I73">
+        <v>-0.07911706767153798</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B74">
-        <v>-0.1171134092325369</v>
+        <v>0.05385071197731098</v>
       </c>
       <c r="C74">
-        <v>-0.1048943759575991</v>
+        <v>-0.1463145675963185</v>
       </c>
       <c r="D74">
-        <v>0.02028052905190992</v>
+        <v>-0.04031273957060573</v>
       </c>
       <c r="E74">
-        <v>-0.04259317233176371</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>-0.01196090362198973</v>
+      </c>
+      <c r="F74">
+        <v>-0.0413778560010163</v>
+      </c>
+      <c r="G74">
+        <v>0.007338601897071069</v>
+      </c>
+      <c r="H74">
+        <v>-0.009608467613970207</v>
+      </c>
+      <c r="I74">
+        <v>0.1105614560293791</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B75">
-        <v>-0.2522950703597323</v>
+        <v>0.1235892749859382</v>
       </c>
       <c r="C75">
-        <v>-0.1777417434370639</v>
+        <v>-0.2686832672319368</v>
       </c>
       <c r="D75">
-        <v>0.1035973310187727</v>
+        <v>-0.1310338791837075</v>
       </c>
       <c r="E75">
-        <v>0.009181050370459846</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>-0.08914639547433947</v>
+      </c>
+      <c r="F75">
+        <v>0.03839593919057022</v>
+      </c>
+      <c r="G75">
+        <v>0.102752312542571</v>
+      </c>
+      <c r="H75">
+        <v>0.01561385407883437</v>
+      </c>
+      <c r="I75">
+        <v>0.08756198190982062</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B76">
-        <v>-0.1531868771159204</v>
+        <v>0.07063337567912503</v>
       </c>
       <c r="C76">
-        <v>-0.1265065452722106</v>
+        <v>-0.1827876867639118</v>
       </c>
       <c r="D76">
-        <v>-0.02290247604507181</v>
+        <v>-0.02935557261734986</v>
       </c>
       <c r="E76">
-        <v>-0.01221951053338949</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>-0.02695787811245577</v>
+      </c>
+      <c r="F76">
+        <v>-0.002534578407909834</v>
+      </c>
+      <c r="G76">
+        <v>0.04323250192325507</v>
+      </c>
+      <c r="H76">
+        <v>0.04162529499535188</v>
+      </c>
+      <c r="I76">
+        <v>0.1152401367738923</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B77">
-        <v>-0.01667997688232678</v>
+        <v>0.02810771989373592</v>
       </c>
       <c r="C77">
-        <v>-0.07648618260652131</v>
+        <v>-0.09174901834283078</v>
       </c>
       <c r="D77">
-        <v>-0.06985499409831408</v>
+        <v>0.2705791262077317</v>
       </c>
       <c r="E77">
-        <v>-0.2154850860785124</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>-0.7717031784612134</v>
+      </c>
+      <c r="F77">
+        <v>0.3175362725075835</v>
+      </c>
+      <c r="G77">
+        <v>-0.2614429726504317</v>
+      </c>
+      <c r="H77">
+        <v>-0.2538046007185547</v>
+      </c>
+      <c r="I77">
+        <v>0.02932774534986221</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B78">
-        <v>-0.03154647203967693</v>
+        <v>0.01521784972347389</v>
       </c>
       <c r="C78">
-        <v>-0.06400645231578297</v>
+        <v>-0.08457107913049518</v>
       </c>
       <c r="D78">
-        <v>-0.1527216074516703</v>
+        <v>0.1379763876649416</v>
       </c>
       <c r="E78">
-        <v>-0.03554231122336941</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>0.04475989507577086</v>
+      </c>
+      <c r="F78">
+        <v>-0.05003155353378157</v>
+      </c>
+      <c r="G78">
+        <v>0.03753959626337568</v>
+      </c>
+      <c r="H78">
+        <v>0.02364065232008174</v>
+      </c>
+      <c r="I78">
+        <v>0.05969720804087417</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B79">
-        <v>-0.1022006811383933</v>
+        <v>0.04040481882547306</v>
       </c>
       <c r="C79">
-        <v>-0.1572786247211675</v>
+        <v>-0.1819187437967531</v>
       </c>
       <c r="D79">
-        <v>0.09115800028503623</v>
+        <v>-0.06979430679845089</v>
       </c>
       <c r="E79">
-        <v>-0.8067622923818935</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <v>-0.1172182667548737</v>
+      </c>
+      <c r="F79">
+        <v>-0.8093476494979356</v>
+      </c>
+      <c r="G79">
+        <v>-0.3675567652267429</v>
+      </c>
+      <c r="H79">
+        <v>-0.2490234345434311</v>
+      </c>
+      <c r="I79">
+        <v>-0.1476949508191456</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B80">
-        <v>-0.00792840983347492</v>
+        <v>0.0002200877266445709</v>
       </c>
       <c r="C80">
-        <v>-0.04553672125930928</v>
+        <v>-0.04568584701849805</v>
       </c>
       <c r="D80">
-        <v>-0.04783658728603667</v>
+        <v>0.04366781896390168</v>
       </c>
       <c r="E80">
-        <v>0.006669451013112588</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>0.02520285359140156</v>
+      </c>
+      <c r="F80">
+        <v>-0.008903658317738771</v>
+      </c>
+      <c r="G80">
+        <v>0.02725335633208445</v>
+      </c>
+      <c r="H80">
+        <v>0.0182169300908189</v>
+      </c>
+      <c r="I80">
+        <v>0.05631061469223517</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B81">
-        <v>-0.1296703526041984</v>
+        <v>0.05120475967368619</v>
       </c>
       <c r="C81">
-        <v>-0.122943217596126</v>
+        <v>-0.1652612790196038</v>
       </c>
       <c r="D81">
-        <v>0.06325167726382062</v>
+        <v>-0.07630713455582351</v>
       </c>
       <c r="E81">
-        <v>-0.06842936658819135</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>-0.06992844272256926</v>
+      </c>
+      <c r="F81">
+        <v>-0.04452569858079186</v>
+      </c>
+      <c r="G81">
+        <v>0.04083036819255662</v>
+      </c>
+      <c r="H81">
+        <v>0.07233253457697006</v>
+      </c>
+      <c r="I81">
+        <v>0.1374419035201935</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B82">
-        <v>-0.2770079880464303</v>
+        <v>0.1094667095464968</v>
       </c>
       <c r="C82">
-        <v>-0.2726616650068074</v>
+        <v>-0.3298415271569571</v>
       </c>
       <c r="D82">
-        <v>0.2075024430639454</v>
+        <v>-0.2251024360650279</v>
       </c>
       <c r="E82">
-        <v>0.1216528110518875</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>-0.04523427628973893</v>
+      </c>
+      <c r="F82">
+        <v>0.1314970640837823</v>
+      </c>
+      <c r="G82">
+        <v>0.0610886541429257</v>
+      </c>
+      <c r="H82">
+        <v>0.102610124101835</v>
+      </c>
+      <c r="I82">
+        <v>0.04510345525625855</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B83">
-        <v>0.002008944260841787</v>
+        <v>-0.0103826746046019</v>
       </c>
       <c r="C83">
-        <v>-0.05311429793700129</v>
+        <v>-0.03459654512432454</v>
       </c>
       <c r="D83">
-        <v>-0.01434223865743437</v>
+        <v>0.03671338647368674</v>
       </c>
       <c r="E83">
-        <v>-0.0513038586259526</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>-0.08759610966424515</v>
+      </c>
+      <c r="F83">
+        <v>-0.02295604935589882</v>
+      </c>
+      <c r="G83">
+        <v>0.0299125659813861</v>
+      </c>
+      <c r="H83">
+        <v>0.002956385819980859</v>
+      </c>
+      <c r="I83">
+        <v>0.1324912164688151</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B84">
-        <v>-0.001077681940922464</v>
+        <v>-0.001952176325794834</v>
       </c>
       <c r="C84">
-        <v>0.002139620532453389</v>
+        <v>-0.01542584093613286</v>
       </c>
       <c r="D84">
-        <v>-0.004194551794043375</v>
+        <v>0.03982514178586378</v>
       </c>
       <c r="E84">
-        <v>-0.0008905765371439795</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+        <v>-0.009061992028824885</v>
+      </c>
+      <c r="F84">
+        <v>-0.01711127750970351</v>
+      </c>
+      <c r="G84">
+        <v>0.04894984910902624</v>
+      </c>
+      <c r="H84">
+        <v>0.004767421410752781</v>
+      </c>
+      <c r="I84">
+        <v>-0.03223879221468158</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B85">
-        <v>-0.1535029507117254</v>
+        <v>0.06555356217702318</v>
       </c>
       <c r="C85">
-        <v>-0.1288515578866664</v>
+        <v>-0.1845571003636669</v>
       </c>
       <c r="D85">
-        <v>0.03899758311256846</v>
+        <v>-0.08797798600907579</v>
       </c>
       <c r="E85">
-        <v>-0.02759025109997527</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>-0.0007715474569532539</v>
+      </c>
+      <c r="F85">
+        <v>-0.07690277753208705</v>
+      </c>
+      <c r="G85">
+        <v>0.03078251644301098</v>
+      </c>
+      <c r="H85">
+        <v>0.01376271778746416</v>
+      </c>
+      <c r="I85">
+        <v>0.0959967964377053</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B86">
-        <v>-0.01349294820897564</v>
+        <v>0.01139337940865241</v>
       </c>
       <c r="C86">
-        <v>-0.01081476268065136</v>
+        <v>-0.0285399580947516</v>
       </c>
       <c r="D86">
-        <v>-0.08199479827664091</v>
+        <v>0.1083332526127481</v>
       </c>
       <c r="E86">
-        <v>-0.04831978193854238</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>-0.04289004765203713</v>
+      </c>
+      <c r="F86">
+        <v>0.01186237616002607</v>
+      </c>
+      <c r="G86">
+        <v>-0.02326382861841944</v>
+      </c>
+      <c r="H86">
+        <v>0.0005887411147091547</v>
+      </c>
+      <c r="I86">
+        <v>0.08853433590820964</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B87">
-        <v>-0.01622281622030152</v>
+        <v>0.01015883027450957</v>
       </c>
       <c r="C87">
-        <v>-0.02711860120616107</v>
+        <v>-0.05457352969154459</v>
       </c>
       <c r="D87">
-        <v>-0.131181687013754</v>
+        <v>0.147444745584997</v>
       </c>
       <c r="E87">
-        <v>-0.04286623046953607</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>-0.005071888913529967</v>
+      </c>
+      <c r="F87">
+        <v>-0.04258644581709453</v>
+      </c>
+      <c r="G87">
+        <v>0.06747152343298185</v>
+      </c>
+      <c r="H87">
+        <v>0.03366733505544085</v>
+      </c>
+      <c r="I87">
+        <v>-0.03859654646280402</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B88">
-        <v>-0.06107882749627573</v>
+        <v>0.03119502035174081</v>
       </c>
       <c r="C88">
-        <v>-0.04472840122534437</v>
+        <v>-0.06867530775122735</v>
       </c>
       <c r="D88">
-        <v>-0.03388314717729364</v>
+        <v>0.006001490059058067</v>
       </c>
       <c r="E88">
-        <v>-0.02874932396720392</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>0.01430094935956893</v>
+      </c>
+      <c r="F88">
+        <v>-0.02062789288304419</v>
+      </c>
+      <c r="G88">
+        <v>-0.004043749295840835</v>
+      </c>
+      <c r="H88">
+        <v>0.03371792527457897</v>
+      </c>
+      <c r="I88">
+        <v>0.04877430605625592</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B89">
-        <v>-0.2895377696485271</v>
+        <v>0.4107237626564381</v>
       </c>
       <c r="C89">
-        <v>0.3586153771057454</v>
+        <v>0.1758267558757612</v>
       </c>
       <c r="D89">
-        <v>-0.02350747412463516</v>
+        <v>0.02661841077552757</v>
       </c>
       <c r="E89">
-        <v>-0.09471332466194103</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>-0.02037391586060614</v>
+      </c>
+      <c r="F89">
+        <v>-0.07176964494636739</v>
+      </c>
+      <c r="G89">
+        <v>0.03827303056983403</v>
+      </c>
+      <c r="H89">
+        <v>0.1409933141661463</v>
+      </c>
+      <c r="I89">
+        <v>-0.3585442955835641</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B90">
-        <v>-0.2321295287562789</v>
+        <v>0.3138711162193575</v>
       </c>
       <c r="C90">
-        <v>0.2627974801582323</v>
+        <v>0.1163352041353232</v>
       </c>
       <c r="D90">
-        <v>-0.03549443713657936</v>
+        <v>0.0354632006749751</v>
       </c>
       <c r="E90">
-        <v>0.009130372171029489</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>-0.01341179420380291</v>
+      </c>
+      <c r="F90">
+        <v>0.01944711612609164</v>
+      </c>
+      <c r="G90">
+        <v>0.06269960312327125</v>
+      </c>
+      <c r="H90">
+        <v>-0.01654549526394919</v>
+      </c>
+      <c r="I90">
+        <v>0.08150432160449746</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B91">
-        <v>-0.1693906318624712</v>
+        <v>0.07543286491430252</v>
       </c>
       <c r="C91">
-        <v>-0.1708168642170732</v>
+        <v>-0.2094804756559588</v>
       </c>
       <c r="D91">
-        <v>0.08973422296993312</v>
+        <v>-0.1049946170520697</v>
       </c>
       <c r="E91">
-        <v>-0.1017183828447629</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>-0.06758849123328059</v>
+      </c>
+      <c r="F91">
+        <v>-0.07125099484784823</v>
+      </c>
+      <c r="G91">
+        <v>0.01434913902566782</v>
+      </c>
+      <c r="H91">
+        <v>0.01040432681626806</v>
+      </c>
+      <c r="I91">
+        <v>0.116807024301182</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B92">
-        <v>-0.2131738824681085</v>
+        <v>0.3331552058334765</v>
       </c>
       <c r="C92">
-        <v>0.2769040768361261</v>
+        <v>0.1520600350187376</v>
       </c>
       <c r="D92">
-        <v>0.04937345314371046</v>
+        <v>-0.004688900745475934</v>
       </c>
       <c r="E92">
-        <v>-0.05369035045731035</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>-0.07359246240265897</v>
+      </c>
+      <c r="F92">
+        <v>-0.01881328510984451</v>
+      </c>
+      <c r="G92">
+        <v>0.02849413926494605</v>
+      </c>
+      <c r="H92">
+        <v>0.03295134492227453</v>
+      </c>
+      <c r="I92">
+        <v>-0.1576242206551073</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B93">
-        <v>-0.2568579701835421</v>
+        <v>0.3323778972263874</v>
       </c>
       <c r="C93">
-        <v>0.2749650527698794</v>
+        <v>0.1233462831214225</v>
       </c>
       <c r="D93">
-        <v>-0.01842307975158856</v>
+        <v>-0.01157535166960362</v>
       </c>
       <c r="E93">
-        <v>-0.005689992233897801</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>0.02935811872885032</v>
+      </c>
+      <c r="F93">
+        <v>-0.01092699963674334</v>
+      </c>
+      <c r="G93">
+        <v>-0.01613725416650724</v>
+      </c>
+      <c r="H93">
+        <v>0.003450315304029941</v>
+      </c>
+      <c r="I93">
+        <v>0.09982157672974401</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B94">
-        <v>-0.3166565433917506</v>
+        <v>0.1472791703985735</v>
       </c>
       <c r="C94">
-        <v>-0.2380729649344956</v>
+        <v>-0.3510356189034166</v>
       </c>
       <c r="D94">
-        <v>0.369521002884586</v>
+        <v>-0.3449274367599199</v>
       </c>
       <c r="E94">
-        <v>0.1841270447633706</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>-0.04479668718417208</v>
+      </c>
+      <c r="F94">
+        <v>0.104707209768885</v>
+      </c>
+      <c r="G94">
+        <v>0.3202943724817724</v>
+      </c>
+      <c r="H94">
+        <v>-0.04151674899085744</v>
+      </c>
+      <c r="I94">
+        <v>-0.3947812090126252</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B95">
-        <v>-0.01846238511946247</v>
+        <v>0.01849963726716957</v>
       </c>
       <c r="C95">
-        <v>-0.03659694950366051</v>
+        <v>-0.05932582077519042</v>
       </c>
       <c r="D95">
-        <v>-0.06463454454842778</v>
+        <v>0.1102557429398816</v>
       </c>
       <c r="E95">
-        <v>-0.09233515168325349</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>-0.1910206135579828</v>
+      </c>
+      <c r="F95">
+        <v>0.07668630869639141</v>
+      </c>
+      <c r="G95">
+        <v>-0.163345154904065</v>
+      </c>
+      <c r="H95">
+        <v>0.3557159274092674</v>
+      </c>
+      <c r="I95">
+        <v>-0.5070814369652764</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,44 +3478,80 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>0.0003896837006395504</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>-0.0001161746257728277</v>
       </c>
       <c r="D97">
-        <v>0</v>
+        <v>0.0003726518544007156</v>
       </c>
       <c r="E97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
+        <v>0.001108511822520617</v>
+      </c>
+      <c r="F97">
+        <v>0.001454492328110437</v>
+      </c>
+      <c r="G97">
+        <v>-0.0004616733452024896</v>
+      </c>
+      <c r="H97">
+        <v>0.0002968905413664585</v>
+      </c>
+      <c r="I97">
+        <v>-0.0006408710688018056</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B98">
-        <v>-0.1543028932770787</v>
+        <v>0.1143626106836859</v>
       </c>
       <c r="C98">
-        <v>-0.06668506973301973</v>
+        <v>-0.1436483140348931</v>
       </c>
       <c r="D98">
-        <v>-0.1165581193939706</v>
+        <v>0.06262200226495321</v>
       </c>
       <c r="E98">
-        <v>0.2001548948379961</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>0.2630645775961604</v>
+      </c>
+      <c r="F98">
+        <v>0.170255259387503</v>
+      </c>
+      <c r="G98">
+        <v>-0.247987814984698</v>
+      </c>
+      <c r="H98">
+        <v>-0.1892621775401756</v>
+      </c>
+      <c r="I98">
+        <v>-0.04214868573914358</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +3565,22 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,44 +3594,80 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B101">
-        <v>-0.002290824808189683</v>
+        <v>-0.00153127325549389</v>
       </c>
       <c r="C101">
-        <v>-0.02264630893600593</v>
+        <v>-0.02950473663117421</v>
       </c>
       <c r="D101">
-        <v>-0.1024509454286016</v>
+        <v>0.09737042055079388</v>
       </c>
       <c r="E101">
-        <v>-0.009839687970676254</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>0.04228793857068084</v>
+      </c>
+      <c r="F101">
+        <v>-0.02951403731531529</v>
+      </c>
+      <c r="G101">
+        <v>-0.01437904917884682</v>
+      </c>
+      <c r="H101">
+        <v>0.1299436272216321</v>
+      </c>
+      <c r="I101">
+        <v>0.01609501986705127</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B102">
-        <v>-0.1198835942501704</v>
+        <v>0.03796373338722973</v>
       </c>
       <c r="C102">
-        <v>-0.1444851543318415</v>
+        <v>-0.1530042601246015</v>
       </c>
       <c r="D102">
-        <v>0.07080619253849223</v>
+        <v>-0.09130699143872287</v>
       </c>
       <c r="E102">
-        <v>0.04128842235130945</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>-0.03043413421047436</v>
+      </c>
+      <c r="F102">
+        <v>0.06779484874731552</v>
+      </c>
+      <c r="G102">
+        <v>-0.0151529584619415</v>
+      </c>
+      <c r="H102">
+        <v>0.0494825548144809</v>
+      </c>
+      <c r="I102">
+        <v>0.01823800205118327</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2445,10 +3681,22 @@
       <c r="E103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:5">
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2460,6 +3708,18 @@
         <v>0</v>
       </c>
       <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
         <v>0</v>
       </c>
     </row>
